--- a/biology/Botanique/Ketten_Frères/Ketten_Frères.xlsx
+++ b/biology/Botanique/Ketten_Frères/Ketten_Frères.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ketten_Fr%C3%A8res</t>
+          <t>Ketten_Frères</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ketten Frères est une entreprise luxembourgeoise active de 1867 à 1948[1], spécialisée dans la culture de rosiers.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ketten Frères est une entreprise luxembourgeoise active de 1867 à 1948, spécialisée dans la culture de rosiers.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ketten_Fr%C3%A8res</t>
+          <t>Ketten_Frères</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise a été fondée à Limpertsberg en 1867 par le rosiériste Jean Ketten (1844-1922)[2] et son frère Evrard (mort en 1912), ancien apprenti de Soupert &amp; Notting[3]. En 1912, Jean Ketten (mort en 1937), fils d'Evrard Ketten, prend la direction de l'entreprise familiale avec son cousin Charles Ketten.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise a été fondée à Limpertsberg en 1867 par le rosiériste Jean Ketten (1844-1922) et son frère Evrard (mort en 1912), ancien apprenti de Soupert &amp; Notting. En 1912, Jean Ketten (mort en 1937), fils d'Evrard Ketten, prend la direction de l'entreprise familiale avec son cousin Charles Ketten.
 Elle proposait plus de 1 500 variétés de roses, dont outre les siennes un grand nombre de roses issues du catalogue du rosiériste autrichien Geschwind.
-Elle a notamment travaillé pour la cour impériale de Saint-Pétersbourg[4] et plus généralement pour le marché russe.
+Elle a notamment travaillé pour la cour impériale de Saint-Pétersbourg et plus généralement pour le marché russe.
 Aujourd'hui l'on peut admirer les obtentions de Ketten Frères à la "Roseraie Château de Munsbach" à Munsbach (L), le Conservatoire des roses luxembourgeoise, créé par l'association Lëtzebuerger Rousefrënn. Et au Gaard um Titzebierg, jardin ouvert au public à Titzebierg, au Luxembourg.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ketten_Fr%C3%A8res</t>
+          <t>Ketten_Frères</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Quelques obtentions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>'La Prosperine' (hybride de Rosa multiflora grimpant 1897)
 'Docteur Pouleur' (rose thé 1897)
-'Prince Théodore Galitzine' (rose thé 1898)[5]
+'Prince Théodore Galitzine' (rose thé 1898)
 'Princesse Troubetzkoï' (rose thé 1899)
 'Princesse Étienne de Croÿ' (hybride de thé 1908)
 'Souvenir de la Comtesse de Roquette-Buisson' (hybride de thé 1908)
@@ -571,7 +587,7 @@
 'Prince Félix de Luxembourg( (hybride de thé 1930)
 'Violet Wilton' (hybride de thé 1930)
 'Cocarde Jaune' (hybride de thé 1933)
-'Grande-Duchesse Charlotte' (hybride de thé 1938)[6]</t>
+'Grande-Duchesse Charlotte' (hybride de thé 1938)</t>
         </is>
       </c>
     </row>
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ketten_Fr%C3%A8res</t>
+          <t>Ketten_Frères</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,9 +615,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1883, Gilbert Nabonnand dédie aux frères Ketten une rose thé de couleur jaune baptisée 'Ketten Frères'[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1883, Gilbert Nabonnand dédie aux frères Ketten une rose thé de couleur jaune baptisée 'Ketten Frères'.
 </t>
         </is>
       </c>
